--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -4,8 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="LoginTest" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="CreateAccountTest" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="test_suite" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="test_suite" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -24,21 +23,15 @@
     <t>runmode</t>
   </si>
   <si>
-    <t>maitri.b@manifestux.com</t>
-  </si>
-  <si>
-    <t>Psecure123</t>
+    <t>admindb</t>
+  </si>
+  <si>
+    <t>dana123</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>accountname</t>
-  </si>
-  <si>
-    <t>Maitri</t>
-  </si>
-  <si>
     <t>TCID</t>
   </si>
   <si>
@@ -46,9 +39,6 @@
   </si>
   <si>
     <t>LoginTest</t>
-  </si>
-  <si>
-    <t>CreateAccountTest</t>
   </si>
 </sst>
 </file>
@@ -117,10 +107,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -343,7 +329,7 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -356,31 +342,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -395,25 +356,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
+      <c r="A2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
